--- a/Katalon_Studio_Windows_64-7.9.1/My First Web UI Project/Data/Test case.xlsx
+++ b/Katalon_Studio_Windows_64-7.9.1/My First Web UI Project/Data/Test case.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TC Tạo tài khoản" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="94">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -171,27 +171,6 @@
     <t>Số lượng</t>
   </si>
   <si>
-    <t>Giá</t>
-  </si>
-  <si>
-    <t>Mã giảm giá</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Áp  dụng mã giảm giá </t>
-  </si>
-  <si>
-    <t>Nội dung nhập thiệp</t>
-  </si>
-  <si>
-    <t>Click Tất cả</t>
-  </si>
-  <si>
-    <t>Click Xóa</t>
-  </si>
-  <si>
-    <t>Click Chỉnh sửa</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="13"/>
@@ -432,28 +411,55 @@
     <t>Kết quả</t>
   </si>
   <si>
-    <t>Nhập Số lượng</t>
-  </si>
-  <si>
-    <t>Button tất cả</t>
-  </si>
-  <si>
-    <t>Button Xóa</t>
-  </si>
-  <si>
-    <t>Button Chỉnh sửa</t>
-  </si>
-  <si>
-    <t>Nhập Giá</t>
-  </si>
-  <si>
-    <t>Nhập Mã giảm giá</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nhập Áp  dụng mã giảm giá </t>
-  </si>
-  <si>
-    <t>Nhập Nội dung nhập thiệp</t>
+    <t>Vào giỏ hàng</t>
+  </si>
+  <si>
+    <t>Kiểm tra giỏ hàng</t>
+  </si>
+  <si>
+    <t>Thêm sản phẩm vào giỏ hàng</t>
+  </si>
+  <si>
+    <t>Kiểm tra sản phẩm trong giỏ hàng</t>
+  </si>
+  <si>
+    <t>Thay đổi số lượng sản phẩm</t>
+  </si>
+  <si>
+    <t>Kiểm tra thay đổi giỏ hàng</t>
+  </si>
+  <si>
+    <t>Click Xóa sản phẩm trong giỏ hàng</t>
+  </si>
+  <si>
+    <t>Nhấn chỉnh sửa sản phẩm</t>
+  </si>
+  <si>
+    <t>Đăng nhập</t>
+  </si>
+  <si>
+    <t>Giỏ hàng trống</t>
+  </si>
+  <si>
+    <t>Sản phẩm có trong giỏ hàng số lượng =1</t>
+  </si>
+  <si>
+    <t>Sản phẩm</t>
+  </si>
+  <si>
+    <t>Số lượng thay đổi, giá thay đổi chính xác</t>
+  </si>
+  <si>
+    <t>Sản phẩm xóa khỏi giỏ hàng</t>
+  </si>
+  <si>
+    <t>Sản phẩm bị thay đổi</t>
+  </si>
+  <si>
+    <t>Nhấn thanh toán</t>
+  </si>
+  <si>
+    <t>chuyển tới trang thanh toán</t>
   </si>
 </sst>
 </file>
@@ -552,7 +558,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -615,17 +621,6 @@
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
       <top style="medium">
         <color auto="1"/>
       </top>
@@ -748,19 +743,6 @@
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color rgb="FF000000"/>
       </left>
       <right style="medium">
@@ -785,10 +767,32 @@
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom style="medium">
@@ -798,119 +802,92 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
       </right>
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="medium">
         <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom style="medium">
@@ -919,28 +896,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color auto="1"/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -948,288 +914,233 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1237,29 +1148,47 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1551,100 +1480,100 @@
   <sheetData>
     <row r="1" spans="2:4" ht="15" thickBot="1"/>
     <row r="2" spans="2:4">
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="75" t="s">
+      <c r="C2" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="72" t="s">
+      <c r="D2" s="53" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="15" thickBot="1">
-      <c r="B3" s="79"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="73"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="54"/>
     </row>
     <row r="4" spans="2:4" ht="53.4" customHeight="1">
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="77" t="s">
+      <c r="C4" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="74" t="s">
+      <c r="D4" s="55" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="15" thickBot="1">
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
     </row>
     <row r="6" spans="2:4" ht="18.600000000000001" thickBot="1">
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="8"/>
+      <c r="C6" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="2:4" ht="18.600000000000001" thickBot="1">
-      <c r="B7" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="7"/>
+      <c r="B7" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="4"/>
     </row>
     <row r="8" spans="2:4" ht="18.600000000000001" thickBot="1">
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="8"/>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" spans="2:4" ht="34.799999999999997" thickBot="1">
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="61" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9" s="10"/>
+      <c r="C9" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="6"/>
     </row>
     <row r="10" spans="2:4" ht="36.6" thickBot="1">
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="64" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" s="23"/>
+      <c r="C10" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="11"/>
     </row>
     <row r="11" spans="2:4" ht="36.6" thickBot="1">
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="65" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="10"/>
+      <c r="C11" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="6"/>
     </row>
     <row r="12" spans="2:4" ht="18.600000000000001" thickBot="1">
-      <c r="B12" s="66" t="s">
+      <c r="B12" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="64" t="s">
-        <v>83</v>
+      <c r="D12" s="50" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1678,104 +1607,104 @@
   <sheetData>
     <row r="2" spans="2:5" ht="15" thickBot="1"/>
     <row r="3" spans="2:5" ht="16.8">
-      <c r="B3" s="90" t="s">
+      <c r="B3" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="90" t="s">
+      <c r="C3" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="80" t="s">
+      <c r="E3" s="61" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="17.399999999999999" thickBot="1">
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="27" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="81"/>
+      <c r="E4" s="62"/>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="94" t="s">
+      <c r="B5" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="86" t="s">
-        <v>64</v>
-      </c>
-      <c r="E5" s="82" t="s">
+      <c r="C5" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="67" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="63" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="52.5" customHeight="1" thickBot="1">
-      <c r="B6" s="95"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="83"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="64"/>
     </row>
     <row r="7" spans="2:5" ht="18.600000000000001" thickBot="1">
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="34.799999999999997" thickBot="1">
+      <c r="B8" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="2:5" ht="42.75" customHeight="1" thickBot="1">
+      <c r="B9" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="34.799999999999997" thickBot="1">
-      <c r="B8" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="20"/>
-    </row>
-    <row r="9" spans="2:5" ht="42.75" customHeight="1" thickBot="1">
-      <c r="B9" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" s="21"/>
+      <c r="E9" s="9"/>
     </row>
     <row r="10" spans="2:5" ht="15" customHeight="1">
-      <c r="B10" s="88" t="s">
+      <c r="B10" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="92" t="s">
+      <c r="C10" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="84"/>
+      <c r="D10" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="65"/>
     </row>
     <row r="11" spans="2:5" ht="30" customHeight="1" thickBot="1">
-      <c r="B11" s="89"/>
-      <c r="C11" s="93"/>
-      <c r="D11" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="85"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1797,150 +1726,144 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D16"/>
+  <dimension ref="B3:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="4"/>
-    <col min="2" max="2" width="21.44140625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="26.88671875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="22.5546875" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="8.88671875" style="96"/>
+    <col min="2" max="2" width="31.5546875" style="96" customWidth="1"/>
+    <col min="3" max="3" width="26.88671875" style="96" customWidth="1"/>
+    <col min="4" max="4" width="22.5546875" style="96" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="96"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="18.600000000000001" thickBot="1"/>
     <row r="3" spans="2:4">
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="75" t="s">
+      <c r="C3" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" ht="18.600000000000001" thickBot="1">
-      <c r="B4" s="79"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="6" t="s">
-        <v>17</v>
+      <c r="D3" s="87" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="18" customHeight="1">
+      <c r="B4" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="88"/>
+      <c r="D4" s="89" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="98" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="100"/>
-      <c r="D5" s="96" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" ht="26.4" customHeight="1" thickBot="1">
-      <c r="B6" s="99"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="97"/>
-    </row>
-    <row r="7" spans="2:4" ht="18.600000000000001" thickBot="1">
-      <c r="B7" s="67" t="s">
+      <c r="B5" s="90" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="91"/>
+      <c r="D5" s="92"/>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="91" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="92"/>
+      <c r="D6" s="92" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="36">
+      <c r="B7" s="91" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="92" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="92"/>
+    </row>
+    <row r="8" spans="2:4" ht="54">
+      <c r="B8" s="91" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="92"/>
+      <c r="D8" s="92" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="36" customHeight="1">
+      <c r="B9" s="93" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="95" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="92"/>
+    </row>
+    <row r="10" spans="2:4" ht="54">
+      <c r="B10" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="91"/>
+      <c r="D10" s="91" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="36">
+      <c r="B11" s="95" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="91"/>
+      <c r="D11" s="91"/>
+    </row>
+    <row r="12" spans="2:4" ht="36">
+      <c r="B12" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="91"/>
+      <c r="D12" s="91" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="36">
+      <c r="B13" s="91" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="92" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="92"/>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="92" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="70" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="7"/>
-    </row>
-    <row r="8" spans="2:4" ht="18.600000000000001" thickBot="1">
-      <c r="B8" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="10"/>
-    </row>
-    <row r="9" spans="2:4" ht="18.600000000000001" thickBot="1">
-      <c r="B9" s="69" t="s">
-        <v>89</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="12"/>
-    </row>
-    <row r="10" spans="2:4" ht="36.6" thickBot="1">
-      <c r="B10" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="10"/>
-    </row>
-    <row r="11" spans="2:4" ht="36" customHeight="1" thickBot="1">
-      <c r="B11" s="71" t="s">
+      <c r="C14" s="91"/>
+      <c r="D14" s="92"/>
+    </row>
+    <row r="15" spans="2:4" ht="36">
+      <c r="B15" s="92" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="92"/>
+      <c r="D15" s="91" t="s">
         <v>91</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="7"/>
-    </row>
-    <row r="12" spans="2:4" ht="18.600000000000001" thickBot="1">
-      <c r="B12" s="68" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="69" t="s">
-        <v>85</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" ht="18.600000000000001" thickBot="1">
-      <c r="B13" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="D13" s="64" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" ht="18.600000000000001" thickBot="1">
-      <c r="B14" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="D14" s="64" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" ht="18.600000000000001" thickBot="1">
-      <c r="B15" s="16"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="16"/>
-    </row>
-    <row r="16" spans="2:4" ht="18.600000000000001" thickBot="1">
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="18"/>
+    </row>
+    <row r="16" spans="2:4" ht="36">
+      <c r="B16" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92" t="s">
+        <v>93</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C5:C6"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
@@ -1950,7 +1873,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="111" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="111" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -1967,301 +1890,301 @@
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="2:5" ht="18.75" customHeight="1">
-      <c r="B3" s="108" t="s">
+      <c r="B3" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="108" t="s">
+      <c r="C3" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="104" t="s">
+      <c r="D3" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="102" t="s">
+      <c r="E3" s="81" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="29.25" customHeight="1" thickBot="1">
-      <c r="B4" s="105"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="102"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="81"/>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="111" t="s">
+      <c r="B5" s="79" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="86"/>
+      <c r="D5" s="84" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="82" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="57.75" customHeight="1" thickBot="1">
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="82"/>
+    </row>
+    <row r="7" spans="2:5" ht="17.399999999999999" thickBot="1">
+      <c r="B7" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="2:5" ht="17.399999999999999" thickBot="1">
+      <c r="B8" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="26"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="2:5" ht="17.399999999999999" thickBot="1">
+      <c r="B9" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="28"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="2:5" ht="17.399999999999999" thickBot="1">
+      <c r="B10" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="26"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="2:5" ht="17.399999999999999" thickBot="1">
+      <c r="B11" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="28"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="2:5" ht="17.399999999999999" thickBot="1">
+      <c r="B12" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="26"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="2:5" ht="17.399999999999999" thickBot="1">
+      <c r="B13" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="26"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="2:5" ht="17.399999999999999" thickBot="1">
+      <c r="B14" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="26"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="2:5" ht="34.200000000000003" thickBot="1">
+      <c r="B15" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="26"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="2:5" ht="17.399999999999999" thickBot="1">
+      <c r="B16" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="48"/>
+      <c r="D16" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="2:5" ht="17.399999999999999" thickBot="1">
+      <c r="B17" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="49"/>
+      <c r="D17" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="2:5" ht="17.399999999999999" thickBot="1">
+      <c r="B18" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="36"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="2:5" ht="17.399999999999999" thickBot="1">
+      <c r="B19" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="38"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="2:5" ht="17.399999999999999" thickBot="1">
+      <c r="B20" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="31"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="2:5" ht="17.399999999999999" thickBot="1">
+      <c r="B21" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="31"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="2:5" ht="35.25" customHeight="1" thickBot="1">
+      <c r="B22" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="26"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="2:5" ht="17.399999999999999" thickBot="1">
+      <c r="B23" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="40"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="2:5" ht="17.399999999999999" thickBot="1">
+      <c r="B24" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="40"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="2:5" ht="17.399999999999999" thickBot="1">
+      <c r="B25" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="109"/>
-      <c r="D5" s="106" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="103" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="57.75" customHeight="1" thickBot="1">
-      <c r="B6" s="110"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="107"/>
-      <c r="E6" s="103"/>
-    </row>
-    <row r="7" spans="2:5" ht="17.399999999999999" thickBot="1">
-      <c r="B7" s="36" t="s">
+      <c r="D25" s="40"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="2:5" ht="17.399999999999999" thickBot="1">
+      <c r="B26" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="34"/>
+      <c r="D26" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="2:5" ht="17.399999999999999" thickBot="1">
+      <c r="B27" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="35"/>
+      <c r="D27" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="2:5" ht="17.399999999999999" thickBot="1">
+      <c r="B28" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="2:5" ht="17.399999999999999" thickBot="1">
+      <c r="B29" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="2:5" ht="17.399999999999999" thickBot="1">
-      <c r="B8" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="2:5" ht="17.399999999999999" thickBot="1">
-      <c r="B9" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="42"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="2:5" ht="17.399999999999999" thickBot="1">
-      <c r="B10" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="61" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="40"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="2:5" ht="17.399999999999999" thickBot="1">
-      <c r="B11" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="42"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="2:5" ht="17.399999999999999" thickBot="1">
-      <c r="B12" s="39" t="s">
+      <c r="D29" s="28"/>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="2:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B30" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="28"/>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="2:5" ht="17.399999999999999" thickBot="1">
+      <c r="B31" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" s="28"/>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="2:5" ht="17.399999999999999" thickBot="1">
+      <c r="B32" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="40"/>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="2:5" ht="17.399999999999999" thickBot="1">
-      <c r="B13" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" s="60" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="40"/>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="2:5" ht="17.399999999999999" thickBot="1">
-      <c r="B14" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="C14" s="60" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="40"/>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="2:5" ht="34.200000000000003" thickBot="1">
-      <c r="B15" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="61" t="s">
-        <v>78</v>
-      </c>
-      <c r="D15" s="40"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="2:5" ht="17.399999999999999" thickBot="1">
-      <c r="B16" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="62"/>
-      <c r="D16" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="2:5" ht="17.399999999999999" thickBot="1">
-      <c r="B17" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="63"/>
-      <c r="D17" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="2:5" ht="17.399999999999999" thickBot="1">
-      <c r="B18" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="50"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="2:5" ht="17.399999999999999" thickBot="1">
-      <c r="B19" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" s="52"/>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="2:5" ht="17.399999999999999" thickBot="1">
-      <c r="B20" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="45"/>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="2:5" ht="17.399999999999999" thickBot="1">
-      <c r="B21" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="45"/>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="2:5" ht="35.25" customHeight="1" thickBot="1">
-      <c r="B22" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="40"/>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="2:5" ht="17.399999999999999" thickBot="1">
-      <c r="B23" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="54"/>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="2:5" ht="17.399999999999999" thickBot="1">
-      <c r="B24" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="54"/>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="2:5" ht="17.399999999999999" thickBot="1">
-      <c r="B25" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="D25" s="54"/>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="2:5" ht="17.399999999999999" thickBot="1">
-      <c r="B26" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="48"/>
-      <c r="D26" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="2:5" ht="17.399999999999999" thickBot="1">
-      <c r="B27" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="49"/>
-      <c r="D27" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="2:5" ht="17.399999999999999" thickBot="1">
-      <c r="B28" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" spans="2:5" ht="17.399999999999999" thickBot="1">
-      <c r="B29" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="D29" s="42"/>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="2:5" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B30" s="42" t="s">
+      <c r="C32" s="38"/>
+      <c r="D32" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="D30" s="42"/>
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="2:5" ht="17.399999999999999" thickBot="1">
-      <c r="B31" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="C31" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="D31" s="42"/>
-      <c r="E31" s="3"/>
-    </row>
-    <row r="32" spans="2:5" ht="17.399999999999999" thickBot="1">
-      <c r="B32" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="C32" s="52"/>
-      <c r="D32" s="52" t="s">
-        <v>60</v>
-      </c>
       <c r="E32" s="3"/>
     </row>
     <row r="33" spans="2:4" ht="14.4" thickBot="1">
-      <c r="B33" s="58"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="8">
